--- a/document/datos.xlsx
+++ b/document/datos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t xml:space="preserve">Tipo Doc</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">EPS Y MEDICINA PREPAGADA SURAMERICANA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI</t>
   </si>
 </sst>
 </file>
@@ -385,15 +388,17 @@
     <tabColor rgb="FFA9D18E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,11 +547,59 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>144587410</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>44552</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
+  <conditionalFormatting sqref="B2:B4">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/document/datos.xlsx
+++ b/document/datos.xlsx
@@ -20,54 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Tipo Doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de atención</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Año</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de atención</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción Dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateralidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo AV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">tipo_doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_atencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion_dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lateralidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">av_lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps</t>
   </si>
   <si>
     <t xml:space="preserve">CC</t>
@@ -101,16 +98,21 @@
   </si>
   <si>
     <t xml:space="preserve">TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="[$-240A]DD/MM/YYYY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -235,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,14 +250,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,10 +268,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -388,20 +386,25 @@
     <tabColor rgb="FFA9D18E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="44.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="16" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,58 +414,55 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>32446151</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>44545</v>
-      </c>
-      <c r="D2" s="9" t="n">
         <v>2021</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -470,47 +470,44 @@
       <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="12" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>32446151</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>44545</v>
-      </c>
-      <c r="D3" s="9" t="n">
         <v>2021</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>17</v>
@@ -518,47 +515,44 @@
       <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>144587410</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>44552</v>
-      </c>
-      <c r="D4" s="9" t="n">
         <v>2021</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>17</v>
@@ -566,40 +560,217 @@
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="M5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="12" t="s">
-        <v>25</v>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>656</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>657</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4">
+  <conditionalFormatting sqref="B2:B8">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/document/datos.xlsx
+++ b/document/datos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t xml:space="preserve">tipo_doc</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">EPS Y MEDICINA PREPAGADA SURAMERICANA S.A</t>
@@ -388,8 +391,8 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,9 +494,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,14 +541,16 @@
       <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>144587410</v>
@@ -581,14 +588,16 @@
       <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>30</v>
@@ -626,14 +635,16 @@
       <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>54</v>
@@ -671,14 +682,16 @@
       <c r="M6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>656</v>
@@ -716,14 +729,16 @@
       <c r="M7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>657</v>
@@ -761,9 +776,11 @@
       <c r="M8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="O8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
